--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>287.430610222721</v>
+        <v>7.848425</v>
       </c>
       <c r="H2">
-        <v>287.430610222721</v>
+        <v>23.545275</v>
       </c>
       <c r="I2">
-        <v>0.93574796207975</v>
+        <v>0.02436729568045431</v>
       </c>
       <c r="J2">
-        <v>0.93574796207975</v>
+        <v>0.02436729568045431</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N2">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O2">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P2">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q2">
-        <v>881.686276408877</v>
+        <v>70.4007489744</v>
       </c>
       <c r="R2">
-        <v>881.686276408877</v>
+        <v>633.6067407695999</v>
       </c>
       <c r="S2">
-        <v>0.2317688131750162</v>
+        <v>0.01186952374413816</v>
       </c>
       <c r="T2">
-        <v>0.2317688131750162</v>
+        <v>0.01186952374413816</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>287.430610222721</v>
+        <v>7.848425</v>
       </c>
       <c r="H3">
-        <v>287.430610222721</v>
+        <v>23.545275</v>
       </c>
       <c r="I3">
-        <v>0.93574796207975</v>
+        <v>0.02436729568045431</v>
       </c>
       <c r="J3">
-        <v>0.93574796207975</v>
+        <v>0.02436729568045431</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N3">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P3">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q3">
-        <v>2564.304964377692</v>
+        <v>70.73056072203333</v>
       </c>
       <c r="R3">
-        <v>2564.304964377692</v>
+        <v>636.5750464983</v>
       </c>
       <c r="S3">
-        <v>0.6740786764123393</v>
+        <v>0.01192512980553181</v>
       </c>
       <c r="T3">
-        <v>0.6740786764123393</v>
+        <v>0.01192512980553181</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>287.430610222721</v>
+        <v>7.848425</v>
       </c>
       <c r="H4">
-        <v>287.430610222721</v>
+        <v>23.545275</v>
       </c>
       <c r="I4">
-        <v>0.93574796207975</v>
+        <v>0.02436729568045431</v>
       </c>
       <c r="J4">
-        <v>0.93574796207975</v>
+        <v>0.02436729568045431</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.39573468663341</v>
+        <v>0.4327576666666667</v>
       </c>
       <c r="N4">
-        <v>0.39573468663341</v>
+        <v>1.298273</v>
       </c>
       <c r="O4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="P4">
-        <v>0.03195355341831477</v>
+        <v>0.02350043838650813</v>
       </c>
       <c r="Q4">
-        <v>113.7462624653383</v>
+        <v>3.396466090008333</v>
       </c>
       <c r="R4">
-        <v>113.7462624653383</v>
+        <v>30.568194810075</v>
       </c>
       <c r="S4">
-        <v>0.02990047249239448</v>
+        <v>0.0005726421307843421</v>
       </c>
       <c r="T4">
-        <v>0.02990047249239448</v>
+        <v>0.0005726421307843421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.7360862282027</v>
+        <v>291.329961</v>
       </c>
       <c r="H5">
-        <v>19.7360862282027</v>
+        <v>873.989883</v>
       </c>
       <c r="I5">
-        <v>0.06425203792025011</v>
+        <v>0.9045029162236017</v>
       </c>
       <c r="J5">
-        <v>0.06425203792025011</v>
+        <v>0.9045029162236017</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06747522724071</v>
+        <v>8.970048</v>
       </c>
       <c r="N5">
-        <v>3.06747522724071</v>
+        <v>26.910144</v>
       </c>
       <c r="O5">
-        <v>0.2476829472969383</v>
+        <v>0.487108783009476</v>
       </c>
       <c r="P5">
-        <v>0.2476829472969383</v>
+        <v>0.4871087830094759</v>
       </c>
       <c r="Q5">
-        <v>60.53995558769833</v>
+        <v>2613.243734008128</v>
       </c>
       <c r="R5">
-        <v>60.53995558769833</v>
+        <v>23519.19360607315</v>
       </c>
       <c r="S5">
-        <v>0.01591413412192219</v>
+        <v>0.4405913147502006</v>
       </c>
       <c r="T5">
-        <v>0.01591413412192219</v>
+        <v>0.4405913147502006</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.7360862282027</v>
+        <v>291.329961</v>
       </c>
       <c r="H6">
-        <v>19.7360862282027</v>
+        <v>873.989883</v>
       </c>
       <c r="I6">
-        <v>0.06425203792025011</v>
+        <v>0.9045029162236017</v>
       </c>
       <c r="J6">
-        <v>0.06425203792025011</v>
+        <v>0.9045029162236017</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.921474864457521</v>
+        <v>9.012070666666666</v>
       </c>
       <c r="N6">
-        <v>8.921474864457521</v>
+        <v>27.036212</v>
       </c>
       <c r="O6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="P6">
-        <v>0.7203634992847469</v>
+        <v>0.489390778604016</v>
       </c>
       <c r="Q6">
-        <v>176.0749972076766</v>
+        <v>2625.486195849244</v>
       </c>
       <c r="R6">
-        <v>176.0749972076766</v>
+        <v>23629.37576264319</v>
       </c>
       <c r="S6">
-        <v>0.04628482287240761</v>
+        <v>0.4426553864202715</v>
       </c>
       <c r="T6">
-        <v>0.04628482287240761</v>
+        <v>0.4426553864202715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>291.329961</v>
+      </c>
+      <c r="H7">
+        <v>873.989883</v>
+      </c>
+      <c r="I7">
+        <v>0.9045029162236017</v>
+      </c>
+      <c r="J7">
+        <v>0.9045029162236017</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4327576666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.298273</v>
+      </c>
+      <c r="O7">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="P7">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="Q7">
+        <v>126.075274152451</v>
+      </c>
+      <c r="R7">
+        <v>1134.677467372059</v>
+      </c>
+      <c r="S7">
+        <v>0.02125621505312967</v>
+      </c>
+      <c r="T7">
+        <v>0.02125621505312967</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>22.91008466666667</v>
+      </c>
+      <c r="H8">
+        <v>68.730254</v>
+      </c>
+      <c r="I8">
+        <v>0.07112978809594397</v>
+      </c>
+      <c r="J8">
+        <v>0.07112978809594397</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.970048</v>
+      </c>
+      <c r="N8">
+        <v>26.910144</v>
+      </c>
+      <c r="O8">
+        <v>0.487108783009476</v>
+      </c>
+      <c r="P8">
+        <v>0.4871087830094759</v>
+      </c>
+      <c r="Q8">
+        <v>205.504559144064</v>
+      </c>
+      <c r="R8">
+        <v>1849.541032296576</v>
+      </c>
+      <c r="S8">
+        <v>0.03464794451513718</v>
+      </c>
+      <c r="T8">
+        <v>0.03464794451513718</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>19.7360862282027</v>
-      </c>
-      <c r="H7">
-        <v>19.7360862282027</v>
-      </c>
-      <c r="I7">
-        <v>0.06425203792025011</v>
-      </c>
-      <c r="J7">
-        <v>0.06425203792025011</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.39573468663341</v>
-      </c>
-      <c r="N7">
-        <v>0.39573468663341</v>
-      </c>
-      <c r="O7">
-        <v>0.03195355341831477</v>
-      </c>
-      <c r="P7">
-        <v>0.03195355341831477</v>
-      </c>
-      <c r="Q7">
-        <v>7.810253898887755</v>
-      </c>
-      <c r="R7">
-        <v>7.810253898887755</v>
-      </c>
-      <c r="S7">
-        <v>0.002053080925920298</v>
-      </c>
-      <c r="T7">
-        <v>0.002053080925920298</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>22.91008466666667</v>
+      </c>
+      <c r="H9">
+        <v>68.730254</v>
+      </c>
+      <c r="I9">
+        <v>0.07112978809594397</v>
+      </c>
+      <c r="J9">
+        <v>0.07112978809594397</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.012070666666666</v>
+      </c>
+      <c r="N9">
+        <v>27.036212</v>
+      </c>
+      <c r="O9">
+        <v>0.489390778604016</v>
+      </c>
+      <c r="P9">
+        <v>0.489390778604016</v>
+      </c>
+      <c r="Q9">
+        <v>206.4673019953164</v>
+      </c>
+      <c r="R9">
+        <v>1858.205717957848</v>
+      </c>
+      <c r="S9">
+        <v>0.03481026237821269</v>
+      </c>
+      <c r="T9">
+        <v>0.03481026237821269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>22.91008466666667</v>
+      </c>
+      <c r="H10">
+        <v>68.730254</v>
+      </c>
+      <c r="I10">
+        <v>0.07112978809594397</v>
+      </c>
+      <c r="J10">
+        <v>0.07112978809594397</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4327576666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.298273</v>
+      </c>
+      <c r="O10">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="P10">
+        <v>0.02350043838650813</v>
+      </c>
+      <c r="Q10">
+        <v>9.914514783482444</v>
+      </c>
+      <c r="R10">
+        <v>89.230633051342</v>
+      </c>
+      <c r="S10">
+        <v>0.00167158120259411</v>
+      </c>
+      <c r="T10">
+        <v>0.00167158120259411</v>
       </c>
     </row>
   </sheetData>
